--- a/data/trans_dic/P1426-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1426-Habitat-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.01686849573889781</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.06076402398742853</v>
+        <v>0.06076402398742851</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.02125128238980733</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01271663201454703</v>
+        <v>0.01265786450445269</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007856370383329364</v>
+        <v>0.008239837302023786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04786192268677941</v>
+        <v>0.04826486427935506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009921976592584984</v>
+        <v>0.01122953746100742</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008994552084732113</v>
+        <v>0.008712578552345873</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04932328372048466</v>
+        <v>0.04901904377139448</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01463596324047798</v>
+        <v>0.01422810305613252</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.009973937335576969</v>
+        <v>0.009960611174417567</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05247804611126666</v>
+        <v>0.05247199133394899</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0359381819958448</v>
+        <v>0.03682512146092538</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02646271072626107</v>
+        <v>0.02671076441308659</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07744634884672814</v>
+        <v>0.07570520011156241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03416920228579981</v>
+        <v>0.03676178273923022</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02932250441610632</v>
+        <v>0.03023127418561145</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07354783737629154</v>
+        <v>0.0733415993580913</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03107902482088467</v>
+        <v>0.03036235116445147</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02336621558538665</v>
+        <v>0.02356206445650185</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07139059868728127</v>
+        <v>0.071769835904354</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.02362738010122747</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.04556273610750162</v>
+        <v>0.04556273610750161</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.01520371900981726</v>
@@ -773,7 +773,7 @@
         <v>0.01712289640933248</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.04682085632359161</v>
+        <v>0.0468208563235916</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007199687303159456</v>
+        <v>0.007269174638053706</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005078964612287071</v>
+        <v>0.005641045357803035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0373860831246523</v>
+        <v>0.03847729532903975</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009553950299860963</v>
+        <v>0.009712097702998503</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01573515674261938</v>
+        <v>0.01528234403730333</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03571807769729445</v>
+        <v>0.03609651080880384</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01090247404074031</v>
+        <v>0.01041615739281542</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01203339616400279</v>
+        <v>0.01227103467490396</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03991031032599272</v>
+        <v>0.03963945571220224</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02434848265172383</v>
+        <v>0.02288301772843052</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01901764272123946</v>
+        <v>0.02005508679684037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.060536495192732</v>
+        <v>0.06040352433097527</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02671480451244827</v>
+        <v>0.02837361098578581</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03608013759779062</v>
+        <v>0.03456626008369229</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05618069962746843</v>
+        <v>0.05641672998936113</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02256853270380836</v>
+        <v>0.02133044719920546</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02399037665446671</v>
+        <v>0.02420253086100163</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.055340822225607</v>
+        <v>0.05434660002073818</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.01326888624502128</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03609558706809724</v>
+        <v>0.03609558706809725</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.0180741417887262</v>
@@ -873,7 +873,7 @@
         <v>0.01964794214215774</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.03927308816376925</v>
+        <v>0.03927308816376924</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01389180967094462</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004037160853332342</v>
+        <v>0.004041187062256774</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006868759537489651</v>
+        <v>0.007088629916317942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02467852785573251</v>
+        <v>0.02510880005821859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009488673275656584</v>
+        <v>0.009518950027849086</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01122945293049133</v>
+        <v>0.01025887195119316</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0296244425886504</v>
+        <v>0.0290091154934539</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008546378920997404</v>
+        <v>0.00825695275690898</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01075919502642145</v>
+        <v>0.01047029161216809</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03030387504419694</v>
+        <v>0.02903678257322362</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02196752402576811</v>
+        <v>0.02139712597816112</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0219322401987265</v>
+        <v>0.02300493722661649</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05199235045783222</v>
+        <v>0.05184868354759199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03198658447712951</v>
+        <v>0.03062117195285434</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03184019099982555</v>
+        <v>0.03150845222248497</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05201773586200598</v>
+        <v>0.05131523071424374</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02210111570757881</v>
+        <v>0.02230579725672376</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02412555218685715</v>
+        <v>0.0237865488900475</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04859948334637023</v>
+        <v>0.04646707265536779</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.01988065944102511</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04425315155748771</v>
+        <v>0.0442531515574877</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.01822166678530881</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00953609814785677</v>
+        <v>0.009568908507738193</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01151701806315451</v>
+        <v>0.01152465403090252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03237623035820453</v>
+        <v>0.03178066747408261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01224757563165422</v>
+        <v>0.01155498970695407</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01198399461479368</v>
+        <v>0.01194137931474853</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03559342253374376</v>
+        <v>0.03589982966120583</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01300858617125579</v>
+        <v>0.01318730249738052</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01363549199725947</v>
+        <v>0.01392122783522312</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03569386363140459</v>
+        <v>0.03660730332679808</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.027224780942414</v>
+        <v>0.02728001834580415</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03137164328172594</v>
+        <v>0.02973885069381893</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05491248673614406</v>
+        <v>0.05437288608474221</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02974193241335187</v>
+        <v>0.02941069544617563</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03187900690050166</v>
+        <v>0.03100878675221386</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0556342778716403</v>
+        <v>0.05572616102171627</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02493514833931092</v>
+        <v>0.02568648295991043</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02734553527842269</v>
+        <v>0.02701942146637666</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0511049485883287</v>
+        <v>0.05207663370097135</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.02035973878203713</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.04678578250453326</v>
+        <v>0.04678578250453325</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.01699278265991985</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01127767184236873</v>
+        <v>0.01120961007590254</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01095322904463467</v>
+        <v>0.01120163088602562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04105499326965997</v>
+        <v>0.04073453703125983</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01461306786802217</v>
+        <v>0.01437262497095914</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01649087558858238</v>
+        <v>0.0160469377708171</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04157642490159796</v>
+        <v>0.04198735241255639</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01382473261360779</v>
+        <v>0.0136588499028152</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01462957226251833</v>
+        <v>0.01424773078084309</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04276575126121353</v>
+        <v>0.04246155495986137</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0203188953073588</v>
+        <v>0.01968892900750232</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01873331918467006</v>
+        <v>0.01943862124025562</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05377296798158967</v>
+        <v>0.05296961479724657</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02393786466400844</v>
+        <v>0.02346933955258838</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02624685951449256</v>
+        <v>0.02605388389876472</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05253224971897013</v>
+        <v>0.05265527877680524</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02042966418565298</v>
+        <v>0.02030944204941523</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02112335616540547</v>
+        <v>0.02064375174792035</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05094008397988608</v>
+        <v>0.05108548229795997</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8946</v>
+        <v>8904</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5301</v>
+        <v>5560</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>33059</v>
+        <v>33337</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6916</v>
+        <v>7828</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6052</v>
+        <v>5862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>36110</v>
+        <v>35887</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20498</v>
+        <v>19927</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13441</v>
+        <v>13423</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>74667</v>
+        <v>74658</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25281</v>
+        <v>25905</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17857</v>
+        <v>18024</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>53493</v>
+        <v>52290</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23818</v>
+        <v>25625</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19729</v>
+        <v>20341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53845</v>
+        <v>53694</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43527</v>
+        <v>42523</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31489</v>
+        <v>31753</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>101576</v>
+        <v>102115</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7329</v>
+        <v>7400</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5193</v>
+        <v>5768</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39215</v>
+        <v>40359</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9831</v>
+        <v>9993</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16410</v>
+        <v>15938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>38201</v>
+        <v>38606</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22317</v>
+        <v>21321</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>24853</v>
+        <v>25344</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>84547</v>
+        <v>83973</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24785</v>
+        <v>23294</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19444</v>
+        <v>20505</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>63498</v>
+        <v>63358</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27489</v>
+        <v>29196</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37628</v>
+        <v>36050</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>60086</v>
+        <v>60338</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>46196</v>
+        <v>43662</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>49548</v>
+        <v>49987</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>117235</v>
+        <v>115129</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5217</v>
+        <v>5384</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19744</v>
+        <v>20088</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7374</v>
+        <v>7398</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8815</v>
+        <v>8053</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24042</v>
+        <v>23543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13117</v>
+        <v>12673</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16618</v>
+        <v>16172</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>48838</v>
+        <v>46796</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16643</v>
+        <v>16211</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16659</v>
+        <v>17473</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>41596</v>
+        <v>41481</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24859</v>
+        <v>23798</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24995</v>
+        <v>24734</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>42216</v>
+        <v>41646</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33921</v>
+        <v>34235</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37263</v>
+        <v>36740</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>78324</v>
+        <v>74887</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9038</v>
+        <v>9069</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10798</v>
+        <v>10805</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32054</v>
+        <v>31465</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12883</v>
+        <v>12155</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12509</v>
+        <v>12464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39751</v>
+        <v>40093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26012</v>
+        <v>26370</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27017</v>
+        <v>27583</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>75202</v>
+        <v>77126</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25802</v>
+        <v>25854</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29413</v>
+        <v>27882</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>54367</v>
+        <v>53833</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31286</v>
+        <v>30937</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33275</v>
+        <v>32366</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>62132</v>
+        <v>62235</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>49861</v>
+        <v>51364</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54181</v>
+        <v>53535</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>107671</v>
+        <v>109718</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38646</v>
+        <v>38413</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>37179</v>
+        <v>38022</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>144913</v>
+        <v>143782</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>51951</v>
+        <v>51096</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>58453</v>
+        <v>56879</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>155079</v>
+        <v>156612</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>96523</v>
+        <v>95364</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>101513</v>
+        <v>98863</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>310467</v>
+        <v>308259</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69628</v>
+        <v>67470</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>63587</v>
+        <v>65981</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>189804</v>
+        <v>186969</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>85101</v>
+        <v>83436</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>93033</v>
+        <v>92349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>195944</v>
+        <v>196403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>142637</v>
+        <v>141798</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>146573</v>
+        <v>143245</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>369811</v>
+        <v>370866</v>
       </c>
     </row>
     <row r="24">
